--- a/barcode/Data path barcode .xlsx
+++ b/barcode/Data path barcode .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -34,16 +34,520 @@
     <t xml:space="preserve">Local_PDF_Path_Column_Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Термобирки Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1295887283</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Александр</t>
   </si>
   <si>
-    <t xml:space="preserve">Термобирки Михаил</t>
+    <t xml:space="preserve">OZN1296040082</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Максим</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1296046505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Артем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296047725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Марк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296049140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Лев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296049859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296050885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Матвей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296052287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Даниил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296053030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296053164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Тимофей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296053524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296053904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296054484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мухаммад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296054645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Кирилл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296064490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Егор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296064516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Илья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296064895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296065057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296065334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Фёдор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296065955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Евгений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296065971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Денис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296066026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Антон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296066072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Игорь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296066808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Юрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296066929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296067164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вячеслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296067225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Станислав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296067356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Василий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296067925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вадим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296067966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Макар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Адам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Богдан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Платон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296074062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Леон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Савелий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Демид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296068698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Лука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296069051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Савва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296069068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1296069108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки София</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302305863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Анна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302411737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302410399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Алиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Есения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Екатерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302407604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Светлана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302408948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Полина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Оливия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Агата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Милана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302408933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Амалия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Виктория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302407457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ясмина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302408828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Дарья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Александра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Любовь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302418750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ольга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302408951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409195</t>
+  </si>
+  <si>
     <t xml:space="preserve">Термобирки Аврора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ксения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Варвара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Наталья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302407716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Анастасия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Елена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Надежда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302407720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Эмилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Арина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мирослава</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ирина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302407725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Агния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Кира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Вероника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302408998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Василиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Елизавета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Юлия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Мира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302410561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Аделина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1302409334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325160332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Ярослав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325161455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Семён</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325162457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325163089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Степан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325163507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термобирки Данил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1325164077</t>
   </si>
 </sst>
 </file>
@@ -53,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -86,14 +590,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,10 +599,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF216BFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF216BFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -150,7 +657,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,6 +670,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF216BFF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -171,10 +738,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -201,28 +768,37 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A3, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Михаил.pdf</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Александр.pdf</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A4, ".pdf")</f>
@@ -230,33 +806,1042 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A5, ".pdf")</f>
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A5, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Артем.pdf</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A6, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Марк.pdf</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A7, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лев.pdf</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A8, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Иван.pdf</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A9, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Матвей.pdf</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A10, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Даниил.pdf</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A11, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Дмитрий.pdf</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A12, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Тимофей.pdf</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A13, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Роман.pdf</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A14, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирон.pdf</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A15, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мухаммад.pdf</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A16, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Кирилл.pdf</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A17, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Егор.pdf</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A18, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Илья.pdf</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A19, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Алексей.pdf</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A20, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Константин.pdf</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A21, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Фёдор.pdf</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A22, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Евгений.pdf</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A23, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Денис.pdf</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A24, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Антон.pdf</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A25, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Игорь.pdf</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A26, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Юрий.pdf</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A27, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Олег.pdf</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A28, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вячеслав.pdf</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A29, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Станислав.pdf</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A30, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Василий.pdf</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A31, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Вадим.pdf</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A32, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Макар.pdf</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A33, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Адам.pdf</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A34, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Богдан.pdf</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A35, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Платон.pdf</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A36, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Леон.pdf</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A37, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савелий.pdf</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A38, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Демид.pdf</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A39, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Лука.pdf</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A40, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Савва.pdf</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A41, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Мирослав.pdf</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A42, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки София.pdf</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A43, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анна.pdf</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A44, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мария.pdf</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A45, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ева.pdf</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A46, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Алиса.pdf</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A47, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Есения.pdf</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A48, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Екатерина.pdf</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A49, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Светлана.pdf</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A50, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Полина.pdf</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A51, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Оливия.pdf</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A52, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агата.pdf</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A53, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Милана.pdf</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A54, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Амалия.pdf</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A55, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Виктория.pdf</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A56, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ясмина.pdf</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A57, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Дарья.pdf</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A58, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Александра.pdf</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A59, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Любовь.pdf</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A60, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ольга.pdf</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A61, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Татьяна.pdf</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A62, ".pdf")</f>
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аврора.pdf</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A63, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ксения.pdf</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A64, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Варвара.pdf</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A65, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Наталья.pdf</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A66, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Анастасия.pdf</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A67, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Марина.pdf</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A68, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елена.pdf</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A69, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Надежда.pdf</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A70, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Эмилия.pdf</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A71, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Арина.pdf</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A72, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мирослава.pdf</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A73, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Ирина.pdf</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A74, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Агния.pdf</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A75, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Кира.pdf</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A76, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Вероника.pdf</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A77, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Василиса.pdf</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A78, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Елизавета.pdf</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A79, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Юлия.pdf</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A80, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Мира.pdf</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\", A81, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\девочки\Термобирки Аделина.pdf</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A82, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Владимир.pdf</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D83" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A83, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Ярослав.pdf</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A84, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Семён.pdf</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A85, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Сергей.pdf</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A86, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Степан.pdf</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\", A87, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\бирки имена\мальчики\Термобирки Данил.pdf</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
